--- a/Inteligência Artificial/Atividades Avaliativas/3_ML Supervisionado/results/models_results.xlsx
+++ b/Inteligência Artificial/Atividades Avaliativas/3_ML Supervisionado/results/models_results.xlsx
@@ -480,19 +480,19 @@
         <v>0.7030999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7079</v>
+        <v>0.7076</v>
       </c>
       <c r="D2" t="n">
         <v>0.7030999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.713</v>
+        <v>0.7125</v>
       </c>
       <c r="F2" t="n">
-        <v>27.4668</v>
+        <v>36.5225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.0921</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8034</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7531</v>
+        <v>0.7529</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8034</v>
+        <v>0.8038999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7655</v>
+        <v>0.7665999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>87.4162</v>
+        <v>114.8815</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3835</v>
+        <v>1.8213</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +539,10 @@
         <v>0.6364</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1165</v>
+        <v>1.4037</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3834</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -564,10 +564,10 @@
         <v>0.7634</v>
       </c>
       <c r="F5" t="n">
-        <v>4.6352</v>
+        <v>6.0565</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0321</v>
+        <v>0.0237</v>
       </c>
     </row>
   </sheetData>
